--- a/biology/Médecine/Augustin_Gilbert/Augustin_Gilbert.xlsx
+++ b/biology/Médecine/Augustin_Gilbert/Augustin_Gilbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Augustin Nicolas Gilbert[2] est un médecin français né le 15 février 1858 à Buzancy et mort le 4 mars 1927 à Paris 8e. Spécialiste des maladies du foie, il décrit la maladie ou syndrome de Gilbert.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Augustin Nicolas Gilbert est un médecin français né le 15 février 1858 à Buzancy et mort le 4 mars 1927 à Paris 8e. Spécialiste des maladies du foie, il décrit la maladie ou syndrome de Gilbert.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son père, Marie Félix, est marchand tanneur[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père, Marie Félix, est marchand tanneur. 
 Il fait ses études au lycée de Reims et est reçu premier au concours général. Puis il va à Paris pour commencer ses études de médecine.
 Il est externe des hôpitaux en 1879, interne en 1881, reçu deuxième au concours. Ses maîtres sont Charles Bouchard, Paul Brouardel, Victor Charles Hanot et Georges Hayem. 
-Il obtient son doctorat en médecine en 1886. Médecin du Bureau central[4] en 1888, agrégé en 1889, il est médecin des hôpitaux en 1894, d'abord à l'hôpital Tenon, puis à l'hôpital Broussais[3].
+Il obtient son doctorat en médecine en 1886. Médecin du Bureau central en 1888, agrégé en 1889, il est médecin des hôpitaux en 1894, d'abord à l'hôpital Tenon, puis à l'hôpital Broussais.
 En 1902, il est nommé professeur de thérapeutique en remplacement de Louis Landouzy, et, en 1910, professeur de clinique médicale à l'hôtel-Dieu, succédant à Georges Dieulafoy.
-Très méthodique, cherchant sans cesse la clarté et la précision, il est affectueusement surnommé « l'homme-plan » par ses étudiants[5]. 
-Il exerce aussi la médecine privée, rue de Rome à Paris. Il fonde en 1911 la revue Paris médical : la semaine du clinicien[6]. Il était resté célibataire[3].
+Très méthodique, cherchant sans cesse la clarté et la précision, il est affectueusement surnommé « l'homme-plan » par ses étudiants. 
+Il exerce aussi la médecine privée, rue de Rome à Paris. Il fonde en 1911 la revue Paris médical : la semaine du clinicien. Il était resté célibataire.
 </t>
         </is>
       </c>
@@ -548,12 +562,14 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il décrit en 1898 le syndrome d'hypertension portale en collaboration avec Maurice Villaret, en observant aussi, au cours de celui-ci, un syndrome d'hypotension des veines sus-hépatiques[7]. 
-En 1901, avec Pierre Lereboullet (1874-1944), il décrit la cholémie simple familiale[8], connue depuis sous le nom de maladie (ou syndrome) de Gilbert[9], sauf dans les pays germanophones, où elle est appelée maladie de Meulengracht. 
-En 1903, avec Maurice Herscher (1873-1950), il étudie les pigments biliaires  contenus dans le sérum de patients atteints de jaunisse. Il établit que ces pigments proviennent de la dégradation de l'hémoglobine[3].
-En collaboration avec Alphonse Marie Baudoin (1876-1957), il met au point  le test de l'hyperglycémie provoquée qui permet un diagnostic plus précis et plus précoce du diabète sucré[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il décrit en 1898 le syndrome d'hypertension portale en collaboration avec Maurice Villaret, en observant aussi, au cours de celui-ci, un syndrome d'hypotension des veines sus-hépatiques. 
+En 1901, avec Pierre Lereboullet (1874-1944), il décrit la cholémie simple familiale, connue depuis sous le nom de maladie (ou syndrome) de Gilbert, sauf dans les pays germanophones, où elle est appelée maladie de Meulengracht. 
+En 1903, avec Maurice Herscher (1873-1950), il étudie les pigments biliaires  contenus dans le sérum de patients atteints de jaunisse. Il établit que ces pigments proviennent de la dégradation de l'hémoglobine.
+En collaboration avec Alphonse Marie Baudoin (1876-1957), il met au point  le test de l'hyperglycémie provoquée qui permet un diagnostic plus précis et plus précoce du diabète sucré.
 </t>
         </is>
       </c>
@@ -584,28 +600,101 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Seul
-Contribution à l'étude du cancer primitif du foie. Paris, 1886 — Thèse.
+          <t>Seul</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Contribution à l'étude du cancer primitif du foie. Paris, 1886 — Thèse.
 Lithiase biliaire non compliquée. Barcelone, 1910.
 Précis de pathologie interne, 1912 — Traduit en espagnol.
 Clinique médicale de l'hôtel-Dieu de Paris. Paris.
-« Préface », dans A. Sécheret et le Dr G. Sécheret, Hygiène et tuberculose : étude sociologique, à l'usage des instituteurs et institutrices, des médecins, des architectes, des maires, des délégués cantonaux, des organisateurs de cours d'adultes, d'œuvres post-scolaires, etc.
-En collaboration
-Avec Paul Brouardel et Joseph Girode, Traité de médecine et de thérapeutique, 10 volumes, Paris, P. Baillière, 1895-1902.
+« Préface », dans A. Sécheret et le Dr G. Sécheret, Hygiène et tuberculose : étude sociologique, à l'usage des instituteurs et institutrices, des médecins, des architectes, des maires, des délégués cantonaux, des organisateurs de cours d'adultes, d'œuvres post-scolaires, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Augustin_Gilbert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Augustin_Gilbert</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications, édition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En collaboration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avec Paul Brouardel et Joseph Girode, Traité de médecine et de thérapeutique, 10 volumes, Paris, P. Baillière, 1895-1902.
 Avec Paul Carnot (1869-1957) :
 L'opothérapie. Paris, 1898.
 Bibliothèque verte de thérapeutique.
 Les fonctions hépatiques. Paris, 1902.
-Bactériothérapie, vaccination, sérothérapie, Paris, Bibliothèque thérapeutique, 2e  éd., Paris, 1912[10] — Traduction espagnole, Barcelone, 1909, 1912.
+Bactériothérapie, vaccination, sérothérapie, Paris, Bibliothèque thérapeutique, 2e  éd., Paris, 1912 — Traduction espagnole, Barcelone, 1909, 1912.
 L'art de prescrire. 1920
 Avec J. et P. Castaigne Lereboullet, « De l'ictère familial — Contribution à l'étude du diabète biliaire », dans Bulletin de la Société des médecins des hôpitaux de Paris, 1900, 17: 948-959.
 Avec Jean-Alfred Fournier (1832-1914), Bibliothèque rouge de l'étudiant en médecine.
 Avec Pierre Lereboullet, « La cholémie simple familiale », dans Semaine médicale, Paris, 1901, 11: 241.
 Avec G. Lion, La syphilis de la moëlle. Paris, 1908.
 Avec S. Postel, La médication phosphorée envisagée au point de vue des échanges nutritifs de l'organisme : (étude critique et expérimentale), Paris, Masson, 1903, 48 p.
-Avec Paul Yvon (1848-1913), nouvelle édition du Formulaire pratique de thérapeutique et de pharmacologie (pour la 38e édition en 1911) de Georges Dujardin-Beaumetz (1833-1895).
-Édition scientifique
-Avec Paul-Émile Garnier (1848-1905), nouvelle édition du Dictionnaire de médecine, de chirurgie, de pharmacie et des sciences qui s'y rapportent d'Émile Littré.</t>
+Avec Paul Yvon (1848-1913), nouvelle édition du Formulaire pratique de thérapeutique et de pharmacologie (pour la 38e édition en 1911) de Georges Dujardin-Beaumetz (1833-1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Augustin_Gilbert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Augustin_Gilbert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications, édition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Édition scientifique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Avec Paul-Émile Garnier (1848-1905), nouvelle édition du Dictionnaire de médecine, de chirurgie, de pharmacie et des sciences qui s'y rapportent d'Émile Littré.</t>
         </is>
       </c>
     </row>
